--- a/InputData/elec/EIaE/Elec Imports and Exports.xlsx
+++ b/InputData/elec/EIaE/Elec Imports and Exports.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\EIaE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\EIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC4D4FB-7BE9-48E5-9CE3-5C8A95A096C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="13365"/>
+    <workbookView xWindow="51750" yWindow="270" windowWidth="14085" windowHeight="14790" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Table 10" sheetId="6" r:id="rId2"/>
     <sheet name="Canada Electricity Generation" sheetId="7" r:id="rId3"/>
     <sheet name="Canada Elec Mix" sheetId="8" r:id="rId4"/>
-    <sheet name="EIaE-BIE" sheetId="3" r:id="rId5"/>
-    <sheet name="EIaE-BEE" sheetId="5" r:id="rId6"/>
+    <sheet name="Texas Notes" sheetId="9" r:id="rId5"/>
+    <sheet name="EIaE-BIE" sheetId="3" r:id="rId6"/>
+    <sheet name="EIaE-BEE" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="172">
   <si>
     <t>EIaE BAU Imported Electricity</t>
   </si>
@@ -505,11 +517,47 @@
   <si>
     <t>All Canadian natural gas was assigned to the "natural gas nonpeaker" plant type</t>
   </si>
+  <si>
+    <t>ERCOT's electricity imports and exports are small enough that can be ignored</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>http://www.ercot.com/content/wcm/lists/89476/2016_Constraints_and_Needs_Report.pdf</t>
+  </si>
+  <si>
+    <t>stating that ERCOT has 1.2 GW of import/export capacity. This capacity is through DC-ties (because ERCOT is it's own grid with its own AC frequency). This ties are used mostly for emergencies.</t>
+  </si>
+  <si>
+    <t>http://www.ercot.com/content/wcm/lists/172484/ERCOT_Quick_Facts_9.12.19.pdf</t>
+  </si>
+  <si>
+    <t>where 1.3% of ERCOT's energy use came from "Other"</t>
+  </si>
+  <si>
+    <t>Other includes solar, hydro, petroleum coke, biomass, landfill gas, distillate fuel oil, and..at the bottom of the list…net DC-tie and Block Load transfer  imports/exports and an adjustment for wholesale storage load.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point being that ERCOT imports/exports negligible amounts of electricity. </t>
+  </si>
+  <si>
+    <t>So, for this spreadsheet, I'm changing all values to zero.</t>
+  </si>
+  <si>
+    <t>I suppose the tricky part is whether ERCOT will continue to be an isolated grid into 2050.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't have any data to suggest that it would break with its current situation. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -722,27 +770,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="1"/>
-    <cellStyle name="Footnotes: top row" xfId="6"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="7"/>
-    <cellStyle name="Normal 2 2" xfId="8"/>
-    <cellStyle name="Parent row" xfId="4"/>
-    <cellStyle name="Table title" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -758,630 +806,630 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1" displayName="Table1" ref="A8:AK16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:AK16" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table10" displayName="Table10" ref="A107:AK115" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table10" displayName="Table10" ref="A107:AK115" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0900-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0900-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0900-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0900-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0900-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0900-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0900-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0900-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0900-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0900-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0900-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0900-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0900-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0900-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0900-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0900-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0900-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0900-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table11" displayName="Table11" ref="A118:AK126" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table11" displayName="Table11" ref="A118:AK126" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0A00-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0A00-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0A00-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0A00-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0A00-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0A00-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0A00-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0A00-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0A00-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0A00-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0A00-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0A00-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0A00-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0A00-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0A00-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0A00-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0A00-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0A00-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0A00-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0A00-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0A00-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table12" displayName="Table12" ref="A129:AK137" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table12" displayName="Table12" ref="A129:AK137" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0B00-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0B00-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0B00-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0B00-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0B00-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0B00-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0B00-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0B00-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0B00-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0B00-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0B00-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0B00-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0B00-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0B00-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0B00-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0B00-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0B00-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0B00-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0B00-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0B00-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0B00-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0B00-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0B00-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0B00-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0B00-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0B00-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0B00-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table13" displayName="Table13" ref="A140:AK148" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table13" displayName="Table13" ref="A140:AK148" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0C00-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0C00-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0C00-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0C00-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0C00-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0C00-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0C00-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0C00-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0C00-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0C00-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0C00-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0C00-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0C00-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0C00-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0C00-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0C00-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0C00-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0C00-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0C00-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0C00-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0C00-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0C00-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0C00-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0C00-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0C00-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table14" displayName="Table14" ref="A151:AK159" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table14" displayName="Table14" ref="A151:AK159" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0D00-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0D00-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0D00-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0D00-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0D00-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0D00-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0D00-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0D00-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0D00-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0D00-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0D00-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0D00-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0D00-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0D00-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0D00-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0D00-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0D00-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0D00-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0D00-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0D00-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0D00-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0D00-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0D00-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0D00-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0D00-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0D00-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0D00-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0D00-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table2" displayName="Table2" ref="A19:AK27" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A19:AK27" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table3" displayName="Table3" ref="A30:AK38" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A30:AK38" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0200-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0200-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0200-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0200-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0200-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table4" displayName="Table4" ref="A41:AK49" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A41:AK49" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0300-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0300-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0300-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0300-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0300-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0300-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0300-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0300-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0300-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0300-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0300-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0300-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table5" displayName="Table5" ref="A52:AK60" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A52:AK60" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0400-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0400-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0400-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0400-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0400-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0400-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0400-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0400-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0400-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0400-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0400-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table6" displayName="Table6" ref="A63:AK71" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A63:AK71" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0500-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0500-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0500-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0500-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0500-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0500-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0500-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0500-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0500-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0500-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0500-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0500-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0500-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table7" displayName="Table7" ref="A74:AK82" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="A74:AK82" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0600-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0600-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0600-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0600-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0600-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0600-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0600-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0600-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0600-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0600-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0600-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0600-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0600-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0600-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table8" displayName="Table8" ref="A85:AK93" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="A85:AK93" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0700-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0700-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0700-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0700-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0700-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0700-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0700-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0700-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0700-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0700-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0700-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0700-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0700-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0700-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0700-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0700-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0700-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0700-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0700-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0700-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0700-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0700-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0700-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0700-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0700-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table9" displayName="Table9" ref="A96:AK104" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table9" displayName="Table9" ref="A96:AK104" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0800-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0800-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0800-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0800-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0800-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0800-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0800-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0800-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0800-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0800-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0800-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0800-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0800-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0800-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0800-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0800-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0800-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0800-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0800-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0800-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0800-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0800-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0800-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0800-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1463,6 +1511,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1498,6 +1563,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1673,29 +1755,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="2" max="2" width="70.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1703,127 +1785,127 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>133</v>
       </c>
@@ -1835,24 +1917,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" customWidth="1"/>
     <col min="38" max="38" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
         <v>137</v>
       </c>
@@ -1959,8 +2041,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="16" t="s">
         <v>41</v>
       </c>
@@ -1971,7 +2053,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="16" t="s">
         <v>40</v>
       </c>
@@ -1984,7 +2066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="16" t="s">
         <v>38</v>
       </c>
@@ -1995,7 +2077,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="16" t="s">
         <v>37</v>
       </c>
@@ -2006,7 +2088,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="17" t="s">
         <v>6</v>
       </c>
@@ -2014,12 +2096,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2129,7 +2211,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
@@ -2239,18 +2321,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
         <v>13</v>
       </c>
@@ -2363,7 +2445,7 @@
         <v>-1.9408000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
@@ -2476,7 +2558,7 @@
         <v>1.2567999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17" t="s">
         <v>17</v>
       </c>
@@ -2589,12 +2671,12 @@
         <v>2.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="s">
         <v>19</v>
       </c>
@@ -2707,7 +2789,7 @@
         <v>-1.9408000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="s">
         <v>20</v>
       </c>
@@ -2820,7 +2902,7 @@
         <v>1.5855999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
         <v>21</v>
       </c>
@@ -2933,17 +3015,17 @@
         <v>3.9599999999999998E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
         <v>24</v>
       </c>
@@ -3056,7 +3138,7 @@
         <v>1.15E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>25</v>
       </c>
@@ -3169,7 +3251,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="17" t="s">
         <v>26</v>
       </c>
@@ -3282,12 +3364,12 @@
         <v>8.3100000000000003E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="17" t="s">
         <v>28</v>
       </c>
@@ -3400,7 +3482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17" t="s">
         <v>30</v>
       </c>
@@ -3513,7 +3595,7 @@
         <v>-3.5530000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="17" t="s">
         <v>31</v>
       </c>
@@ -3626,103 +3708,103 @@
         <v>-3.5530000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="23" t="s">
+    <row r="37" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="23"/>
-      <c r="AE38" s="23"/>
-      <c r="AF38" s="23"/>
-      <c r="AG38" s="23"/>
-      <c r="AH38" s="23"/>
-      <c r="AI38" s="23"/>
-      <c r="AJ38" s="23"/>
-      <c r="AK38" s="23"/>
-    </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="25"/>
+      <c r="AJ38" s="25"/>
+      <c r="AK38" s="25"/>
+    </row>
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="19" t="s">
         <v>150</v>
       </c>
@@ -3737,37 +3819,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.65">
       <c r="A1" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
@@ -3880,7 +3962,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
         <v>46</v>
       </c>
@@ -3993,7 +4075,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
         <v>83</v>
       </c>
@@ -4106,7 +4188,7 @@
         <v>424693.73</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" s="21" t="s">
         <v>84</v>
       </c>
@@ -4219,7 +4301,7 @@
         <v>68620.649999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" s="21" t="s">
         <v>85</v>
       </c>
@@ -4332,7 +4414,7 @@
         <v>12210.51</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" s="21" t="s">
         <v>86</v>
       </c>
@@ -4445,7 +4527,7 @@
         <v>8482.31</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" s="21" t="s">
         <v>87</v>
       </c>
@@ -4558,7 +4640,7 @@
         <v>88648.39</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" s="21" t="s">
         <v>88</v>
       </c>
@@ -4671,7 +4753,7 @@
         <v>2141.8200000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" s="21" t="s">
         <v>89</v>
       </c>
@@ -4784,7 +4866,7 @@
         <v>113896.54</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
         <v>90</v>
       </c>
@@ -4897,12 +4979,12 @@
         <v>1189.83</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="21" t="s">
         <v>46</v>
       </c>
@@ -5015,7 +5097,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="21" t="s">
         <v>83</v>
       </c>
@@ -5128,7 +5210,7 @@
         <v>42252.28</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="21" t="s">
         <v>84</v>
       </c>
@@ -5241,7 +5323,7 @@
         <v>189.6</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="21" t="s">
         <v>85</v>
       </c>
@@ -5354,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="21" t="s">
         <v>86</v>
       </c>
@@ -5467,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="21" t="s">
         <v>87</v>
       </c>
@@ -5580,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" s="21" t="s">
         <v>88</v>
       </c>
@@ -5693,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" s="21" t="s">
         <v>89</v>
       </c>
@@ -5806,7 +5888,7 @@
         <v>945.2</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" s="21" t="s">
         <v>90</v>
       </c>
@@ -5919,12 +6001,12 @@
         <v>16.64</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>46</v>
       </c>
@@ -6037,7 +6119,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="21" t="s">
         <v>83</v>
       </c>
@@ -6150,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="21" t="s">
         <v>84</v>
       </c>
@@ -6263,7 +6345,7 @@
         <v>1052.25</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A33" s="21" t="s">
         <v>85</v>
       </c>
@@ -6376,7 +6458,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A34" s="21" t="s">
         <v>86</v>
       </c>
@@ -6489,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A35" s="21" t="s">
         <v>87</v>
       </c>
@@ -6602,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A36" s="21" t="s">
         <v>88</v>
       </c>
@@ -6715,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A37" s="21" t="s">
         <v>89</v>
       </c>
@@ -6828,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A38" s="21" t="s">
         <v>90</v>
       </c>
@@ -6941,12 +7023,12 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A41" s="21" t="s">
         <v>46</v>
       </c>
@@ -7059,7 +7141,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A42" s="21" t="s">
         <v>83</v>
       </c>
@@ -7172,7 +7254,7 @@
         <v>1141.8900000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A43" s="21" t="s">
         <v>84</v>
       </c>
@@ -7285,7 +7367,7 @@
         <v>1797.35</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A44" s="21" t="s">
         <v>85</v>
       </c>
@@ -7398,7 +7480,7 @@
         <v>320.23</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A45" s="21" t="s">
         <v>86</v>
       </c>
@@ -7511,7 +7593,7 @@
         <v>91.98</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A46" s="21" t="s">
         <v>87</v>
       </c>
@@ -7624,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A47" s="21" t="s">
         <v>88</v>
       </c>
@@ -7737,7 +7819,7 @@
         <v>1582.94</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A48" s="21" t="s">
         <v>89</v>
       </c>
@@ -7850,7 +7932,7 @@
         <v>1877.63</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A49" s="21" t="s">
         <v>90</v>
       </c>
@@ -7963,12 +8045,12 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A52" s="21" t="s">
         <v>46</v>
       </c>
@@ -8081,7 +8163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A53" s="21" t="s">
         <v>83</v>
       </c>
@@ -8194,7 +8276,7 @@
         <v>3280.91</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A54" s="21" t="s">
         <v>84</v>
       </c>
@@ -8307,7 +8389,7 @@
         <v>1201.23</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A55" s="21" t="s">
         <v>85</v>
       </c>
@@ -8420,7 +8502,7 @@
         <v>334.7</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A56" s="21" t="s">
         <v>86</v>
       </c>
@@ -8533,7 +8615,7 @@
         <v>268.93</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A57" s="21" t="s">
         <v>87</v>
       </c>
@@ -8646,7 +8728,7 @@
         <v>4544.8599999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A58" s="21" t="s">
         <v>88</v>
       </c>
@@ -8759,7 +8841,7 @@
         <v>47.16</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A59" s="21" t="s">
         <v>89</v>
       </c>
@@ -8872,7 +8954,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A60" s="21" t="s">
         <v>90</v>
       </c>
@@ -8985,12 +9067,12 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A63" s="21" t="s">
         <v>46</v>
       </c>
@@ -9103,7 +9185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A64" s="21" t="s">
         <v>83</v>
       </c>
@@ -9216,7 +9298,7 @@
         <v>206793.5</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A65" s="21" t="s">
         <v>84</v>
       </c>
@@ -9329,7 +9411,7 @@
         <v>12657.92</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A66" s="21" t="s">
         <v>85</v>
       </c>
@@ -9442,7 +9524,7 @@
         <v>1853.39</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A67" s="21" t="s">
         <v>86</v>
       </c>
@@ -9555,7 +9637,7 @@
         <v>350.92</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A68" s="21" t="s">
         <v>87</v>
       </c>
@@ -9668,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A69" s="21" t="s">
         <v>88</v>
       </c>
@@ -9781,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A70" s="21" t="s">
         <v>89</v>
       </c>
@@ -9894,7 +9976,7 @@
         <v>102.76</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A71" s="21" t="s">
         <v>90</v>
       </c>
@@ -10007,12 +10089,12 @@
         <v>554.84</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A74" s="21" t="s">
         <v>46</v>
       </c>
@@ -10125,7 +10207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A75" s="21" t="s">
         <v>83</v>
       </c>
@@ -10238,7 +10320,7 @@
         <v>37186.61</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A76" s="21" t="s">
         <v>84</v>
       </c>
@@ -10351,7 +10433,7 @@
         <v>14037.34</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A77" s="21" t="s">
         <v>85</v>
       </c>
@@ -10464,7 +10546,7 @@
         <v>1093.22</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A78" s="21" t="s">
         <v>86</v>
       </c>
@@ -10577,7 +10659,7 @@
         <v>5451.2</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A79" s="21" t="s">
         <v>87</v>
       </c>
@@ -10690,7 +10772,7 @@
         <v>84103.53</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A80" s="21" t="s">
         <v>88</v>
       </c>
@@ -10803,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A81" s="21" t="s">
         <v>89</v>
       </c>
@@ -10916,7 +10998,7 @@
         <v>16727.89</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A82" s="21" t="s">
         <v>90</v>
       </c>
@@ -11029,12 +11111,12 @@
         <v>283.98</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A85" s="21" t="s">
         <v>46</v>
       </c>
@@ -11147,7 +11229,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A86" s="21" t="s">
         <v>83</v>
       </c>
@@ -11260,7 +11342,7 @@
         <v>47092.04</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A87" s="21" t="s">
         <v>84</v>
       </c>
@@ -11373,7 +11455,7 @@
         <v>1914.15</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A88" s="21" t="s">
         <v>85</v>
       </c>
@@ -11486,7 +11568,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A89" s="21" t="s">
         <v>86</v>
       </c>
@@ -11599,7 +11681,7 @@
         <v>193.16</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A90" s="21" t="s">
         <v>87</v>
       </c>
@@ -11712,7 +11794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A91" s="21" t="s">
         <v>88</v>
       </c>
@@ -11825,7 +11907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A92" s="21" t="s">
         <v>89</v>
       </c>
@@ -11938,7 +12020,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A93" s="21" t="s">
         <v>90</v>
       </c>
@@ -12051,12 +12133,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A96" s="21" t="s">
         <v>46</v>
       </c>
@@ -12169,7 +12251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A97" s="21" t="s">
         <v>83</v>
       </c>
@@ -12282,7 +12364,7 @@
         <v>3616.17</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A98" s="21" t="s">
         <v>84</v>
       </c>
@@ -12395,7 +12477,7 @@
         <v>24732.26</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A99" s="21" t="s">
         <v>85</v>
       </c>
@@ -12508,7 +12590,7 @@
         <v>2457.59</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A100" s="21" t="s">
         <v>86</v>
       </c>
@@ -12621,7 +12703,7 @@
         <v>1808.68</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A101" s="21" t="s">
         <v>87</v>
       </c>
@@ -12734,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A102" s="21" t="s">
         <v>88</v>
       </c>
@@ -12847,7 +12929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A103" s="21" t="s">
         <v>89</v>
       </c>
@@ -12960,7 +13042,7 @@
         <v>77555.67</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A104" s="21" t="s">
         <v>90</v>
       </c>
@@ -13073,12 +13155,12 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A107" s="21" t="s">
         <v>46</v>
       </c>
@@ -13191,7 +13273,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A108" s="21" t="s">
         <v>83</v>
       </c>
@@ -13304,7 +13386,7 @@
         <v>78942.09</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A109" s="21" t="s">
         <v>84</v>
       </c>
@@ -13417,7 +13499,7 @@
         <v>2260.37</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A110" s="21" t="s">
         <v>85</v>
       </c>
@@ -13530,7 +13612,7 @@
         <v>5609.08</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A111" s="21" t="s">
         <v>86</v>
       </c>
@@ -13643,7 +13725,7 @@
         <v>32.880000000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A112" s="21" t="s">
         <v>87</v>
       </c>
@@ -13756,7 +13838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A113" s="21" t="s">
         <v>88</v>
       </c>
@@ -13869,7 +13951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A114" s="21" t="s">
         <v>89</v>
       </c>
@@ -13982,7 +14064,7 @@
         <v>2274.58</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A115" s="21" t="s">
         <v>90</v>
       </c>
@@ -14095,12 +14177,12 @@
         <v>207.5</v>
       </c>
     </row>
-    <row r="117" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A118" s="21" t="s">
         <v>46</v>
       </c>
@@ -14213,7 +14295,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A119" s="21" t="s">
         <v>83</v>
       </c>
@@ -14326,7 +14408,7 @@
         <v>3725.2</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A120" s="21" t="s">
         <v>84</v>
       </c>
@@ -14439,7 +14521,7 @@
         <v>8665</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A121" s="21" t="s">
         <v>85</v>
       </c>
@@ -14552,7 +14634,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A122" s="21" t="s">
         <v>86</v>
       </c>
@@ -14665,7 +14747,7 @@
         <v>210.24</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A123" s="21" t="s">
         <v>87</v>
       </c>
@@ -14778,7 +14860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A124" s="21" t="s">
         <v>88</v>
       </c>
@@ -14891,7 +14973,7 @@
         <v>511.72</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A125" s="21" t="s">
         <v>89</v>
       </c>
@@ -15004,7 +15086,7 @@
         <v>14394.3</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A126" s="21" t="s">
         <v>90</v>
       </c>
@@ -15117,12 +15199,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A129" s="21" t="s">
         <v>46</v>
       </c>
@@ -15235,7 +15317,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A130" s="21" t="s">
         <v>83</v>
       </c>
@@ -15348,7 +15430,7 @@
         <v>390.36</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A131" s="21" t="s">
         <v>84</v>
       </c>
@@ -15461,7 +15543,7 @@
         <v>33.24</v>
       </c>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A132" s="21" t="s">
         <v>85</v>
       </c>
@@ -15574,7 +15656,7 @@
         <v>15.77</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A133" s="21" t="s">
         <v>86</v>
       </c>
@@ -15687,7 +15769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A134" s="21" t="s">
         <v>87</v>
       </c>
@@ -15800,7 +15882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A135" s="21" t="s">
         <v>88</v>
       </c>
@@ -15913,7 +15995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A136" s="21" t="s">
         <v>89</v>
       </c>
@@ -16026,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A137" s="21" t="s">
         <v>90</v>
       </c>
@@ -16139,12 +16221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A140" s="21" t="s">
         <v>46</v>
       </c>
@@ -16257,7 +16339,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A141" s="21" t="s">
         <v>83</v>
       </c>
@@ -16370,7 +16452,7 @@
         <v>272.68</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A142" s="21" t="s">
         <v>84</v>
       </c>
@@ -16483,7 +16565,7 @@
         <v>26.47</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A143" s="21" t="s">
         <v>85</v>
       </c>
@@ -16596,7 +16678,7 @@
         <v>14.23</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A144" s="21" t="s">
         <v>86</v>
       </c>
@@ -16709,7 +16791,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A145" s="21" t="s">
         <v>87</v>
       </c>
@@ -16822,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A146" s="21" t="s">
         <v>88</v>
       </c>
@@ -16935,7 +17017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A147" s="21" t="s">
         <v>89</v>
       </c>
@@ -17048,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A148" s="21" t="s">
         <v>90</v>
       </c>
@@ -17161,12 +17243,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:37" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A151" s="21" t="s">
         <v>46</v>
       </c>
@@ -17279,7 +17361,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A152" s="21" t="s">
         <v>83</v>
       </c>
@@ -17392,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A153" s="21" t="s">
         <v>84</v>
       </c>
@@ -17505,7 +17587,7 @@
         <v>53.46</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A154" s="21" t="s">
         <v>85</v>
       </c>
@@ -17618,7 +17700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A155" s="21" t="s">
         <v>86</v>
       </c>
@@ -17731,7 +17813,7 @@
         <v>23.13</v>
       </c>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A156" s="21" t="s">
         <v>87</v>
       </c>
@@ -17844,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A157" s="21" t="s">
         <v>88</v>
       </c>
@@ -17957,7 +18039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A158" s="21" t="s">
         <v>89</v>
       </c>
@@ -18070,7 +18152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A159" s="21" t="s">
         <v>90</v>
       </c>
@@ -18205,17 +18287,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2017</v>
       </c>
@@ -18319,7 +18401,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>104</v>
       </c>
@@ -18460,7 +18542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>105</v>
       </c>
@@ -18601,7 +18683,7 @@
         <v>0.18190364911836365</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>106</v>
       </c>
@@ -18742,7 +18824,7 @@
         <v>0.11730969385707413</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>108</v>
       </c>
@@ -18883,7 +18965,7 @@
         <v>0.56866944842730405</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>107</v>
       </c>
@@ -19024,7 +19106,7 @@
         <v>0.10150542802270812</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>109</v>
       </c>
@@ -19165,7 +19247,7 @@
         <v>1.3684072392460112E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>110</v>
       </c>
@@ -19282,7 +19364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>111</v>
       </c>
@@ -19423,7 +19505,7 @@
         <v>1.6199492009677158E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>112</v>
       </c>
@@ -19540,7 +19622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>113</v>
       </c>
@@ -19681,7 +19763,7 @@
         <v>1.6708173823825083E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>114</v>
       </c>
@@ -19798,7 +19880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>115</v>
       </c>
@@ -19915,7 +19997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
         <v>116</v>
       </c>
@@ -20032,7 +20114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>154</v>
       </c>
@@ -20149,7 +20231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>155</v>
       </c>
@@ -20266,7 +20348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>156</v>
       </c>
@@ -20383,7 +20465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>153</v>
       </c>
@@ -20490,22 +20572,103 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684E0261-42C5-4CA8-917D-624750DF8C3C}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{F2E276E7-380F-4BA6-9406-836F7AC7D466}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{6185024C-FA5F-44E6-A24C-B90755808B8B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="2" customWidth="1"/>
-    <col min="2" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1328125" style="2" customWidth="1"/>
+    <col min="2" max="35" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
         <v>157</v>
       </c>
       <c r="B1">
@@ -20611,2259 +20774,1715 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B2</f>
-        <v>6106772.1676192153</v>
+        <v>0</v>
       </c>
       <c r="C2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C2</f>
-        <v>5806409.462339079</v>
+        <v>0</v>
       </c>
       <c r="D2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D2</f>
-        <v>5788220.985870894</v>
+        <v>0</v>
       </c>
       <c r="E2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E2</f>
-        <v>5060455.6176252626</v>
+        <v>0</v>
       </c>
       <c r="F2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F2</f>
-        <v>4601277.2406137651</v>
+        <v>0</v>
       </c>
       <c r="G2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G2</f>
-        <v>3595153.1806915668</v>
+        <v>0</v>
       </c>
       <c r="H2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H2</f>
-        <v>2908975.3598266547</v>
+        <v>0</v>
       </c>
       <c r="I2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I2</f>
-        <v>2641838.3531492692</v>
+        <v>0</v>
       </c>
       <c r="J2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J2</f>
-        <v>2557279.0375513476</v>
+        <v>0</v>
       </c>
       <c r="K2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K2</f>
-        <v>2395776.9593693172</v>
+        <v>0</v>
       </c>
       <c r="L2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L2</f>
-        <v>2410305.43444556</v>
+        <v>0</v>
       </c>
       <c r="M2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M2</f>
-        <v>1359502.1093926684</v>
+        <v>0</v>
       </c>
       <c r="N2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N2</f>
-        <v>1380869.5179604422</v>
+        <v>0</v>
       </c>
       <c r="O2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O2</f>
-        <v>315622.39297441568</v>
+        <v>0</v>
       </c>
       <c r="P2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P2</f>
-        <v>329519.98922873783</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q2</f>
-        <v>294376.1331697249</v>
+        <v>0</v>
       </c>
       <c r="R2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R2</f>
-        <v>277293.22958503879</v>
+        <v>0</v>
       </c>
       <c r="S2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S2</f>
-        <v>309556.37589821219</v>
+        <v>0</v>
       </c>
       <c r="T2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T2</f>
-        <v>275995.47906280251</v>
+        <v>0</v>
       </c>
       <c r="U2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U2</f>
-        <v>343751.26244684559</v>
+        <v>0</v>
       </c>
       <c r="V2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V2</f>
-        <v>176609.13882682344</v>
+        <v>0</v>
       </c>
       <c r="W2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W2</f>
-        <v>176510.02412498172</v>
+        <v>0</v>
       </c>
       <c r="X2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X2</f>
-        <v>177725.39289179974</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y2</f>
-        <v>211066.13358948028</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z2</f>
-        <v>144948.32874368501</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA2</f>
-        <v>120346.35845401537</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB2</f>
-        <v>96190.157881457082</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC2</f>
-        <v>72466.424999153242</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD2</f>
-        <v>49390.391458990656</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE2</f>
-        <v>26421.150261309092</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF2</f>
-        <v>3936.7302990799526</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG2</f>
         <v>0</v>
       </c>
       <c r="AH2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH2</f>
         <v>0</v>
       </c>
       <c r="AI2" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B3</f>
-        <v>5046031.8457179246</v>
+        <v>0</v>
       </c>
       <c r="C3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C3</f>
-        <v>5323205.0573741067</v>
+        <v>0</v>
       </c>
       <c r="D3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D3</f>
-        <v>5591524.0913830716</v>
+        <v>0</v>
       </c>
       <c r="E3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E3</f>
-        <v>6114100.5478342939</v>
+        <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F3</f>
-        <v>6645999.2278146734</v>
+        <v>0</v>
       </c>
       <c r="G3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G3</f>
-        <v>7435079.1746394141</v>
+        <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H3</f>
-        <v>7762029.1210419806</v>
+        <v>0</v>
       </c>
       <c r="I3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I3</f>
-        <v>7638170.0337475669</v>
+        <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J3</f>
-        <v>8228028.9131189119</v>
+        <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K3</f>
-        <v>7880263.1085013002</v>
+        <v>0</v>
       </c>
       <c r="L3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L3</f>
-        <v>7966947.6846746029</v>
+        <v>0</v>
       </c>
       <c r="M3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M3</f>
-        <v>9301050.0671180468</v>
+        <v>0</v>
       </c>
       <c r="N3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N3</f>
-        <v>9624602.125039069</v>
+        <v>0</v>
       </c>
       <c r="O3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O3</f>
-        <v>10433284.060776483</v>
+        <v>0</v>
       </c>
       <c r="P3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P3</f>
-        <v>10432145.372742508</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q3</f>
-        <v>10380137.784603579</v>
+        <v>0</v>
       </c>
       <c r="R3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R3</f>
-        <v>10450271.099332709</v>
+        <v>0</v>
       </c>
       <c r="S3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S3</f>
-        <v>10430062.923500527</v>
+        <v>0</v>
       </c>
       <c r="T3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T3</f>
-        <v>10286410.936517002</v>
+        <v>0</v>
       </c>
       <c r="U3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U3</f>
-        <v>10547635.690210253</v>
+        <v>0</v>
       </c>
       <c r="V3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V3</f>
-        <v>10814360.05588619</v>
+        <v>0</v>
       </c>
       <c r="W3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W3</f>
-        <v>10943237.62502932</v>
+        <v>0</v>
       </c>
       <c r="X3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X3</f>
-        <v>11085636.804587308</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y3</f>
-        <v>11223960.149321409</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z3</f>
-        <v>11388024.732860165</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA3</f>
-        <v>11435467.531082002</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB3</f>
-        <v>11480872.929574106</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC3</f>
-        <v>11522987.573737487</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD3</f>
-        <v>11611822.055973101</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE3</f>
-        <v>11639133.272049669</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF3</f>
-        <v>11695523.440737395</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG3</f>
-        <v>11768297.281904163</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH3</f>
-        <v>11872186.685517732</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI3</f>
-        <v>11979648.447485827</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B4</f>
-        <v>10141799.665934721</v>
+        <v>0</v>
       </c>
       <c r="C4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C4</f>
-        <v>8976670.2695603427</v>
+        <v>0</v>
       </c>
       <c r="D4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D4</f>
-        <v>9127552.7252519801</v>
+        <v>0</v>
       </c>
       <c r="E4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E4</f>
-        <v>8516449.8281733375</v>
+        <v>0</v>
       </c>
       <c r="F4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F4</f>
-        <v>8627118.5371107496</v>
+        <v>0</v>
       </c>
       <c r="G4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G4</f>
-        <v>6981282.7570610568</v>
+        <v>0</v>
       </c>
       <c r="H4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H4</f>
-        <v>6497386.8937813435</v>
+        <v>0</v>
       </c>
       <c r="I4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I4</f>
-        <v>7015099.6924159527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J4</f>
-        <v>5700864.3262491198</v>
+        <v>0</v>
       </c>
       <c r="K4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K4</f>
-        <v>6364111.1375874402</v>
+        <v>0</v>
       </c>
       <c r="L4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L4</f>
-        <v>6724789.5054151854</v>
+        <v>0</v>
       </c>
       <c r="M4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M4</f>
-        <v>7820633.6619073795</v>
+        <v>0</v>
       </c>
       <c r="N4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N4</f>
-        <v>7276892.1128531061</v>
+        <v>0</v>
       </c>
       <c r="O4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O4</f>
-        <v>8136297.1600446263</v>
+        <v>0</v>
       </c>
       <c r="P4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P4</f>
-        <v>7308588.3307273695</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q4</f>
-        <v>8144884.2831585929</v>
+        <v>0</v>
       </c>
       <c r="R4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R4</f>
-        <v>8105358.4152704813</v>
+        <v>0</v>
       </c>
       <c r="S4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S4</f>
-        <v>9036497.5624057595</v>
+        <v>0</v>
       </c>
       <c r="T4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T4</f>
-        <v>8770663.3828613348</v>
+        <v>0</v>
       </c>
       <c r="U4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U4</f>
-        <v>8722619.8995810375</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V4</f>
-        <v>8694460.9409031961</v>
+        <v>0</v>
       </c>
       <c r="W4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W4</f>
-        <v>8681000.3204145338</v>
+        <v>0</v>
       </c>
       <c r="X4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X4</f>
-        <v>8680766.2743536942</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y4</f>
-        <v>8735875.5293312911</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z4</f>
-        <v>8604600.5679493062</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA4</f>
-        <v>8484676.6212346181</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB4</f>
-        <v>8366128.3474854818</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC4</f>
-        <v>8248025.115062369</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD4</f>
-        <v>8165550.411757472</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE4</f>
-        <v>8042089.1109212739</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF4</f>
-        <v>7941308.2224818729</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG4</f>
-        <v>7853609.4796023369</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH4</f>
-        <v>7788019.0085078981</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI4</f>
-        <v>7725677.2951019602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B5</f>
-        <v>39436104.54892274</v>
+        <v>0</v>
       </c>
       <c r="C5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C5</f>
-        <v>38874964.49178312</v>
+        <v>0</v>
       </c>
       <c r="D5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D5</f>
-        <v>39221339.44893343</v>
+        <v>0</v>
       </c>
       <c r="E5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E5</f>
-        <v>39257211.596644998</v>
+        <v>0</v>
       </c>
       <c r="F5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F5</f>
-        <v>40174920.527693346</v>
+        <v>0</v>
       </c>
       <c r="G5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G5</f>
-        <v>38525087.48536922</v>
+        <v>0</v>
       </c>
       <c r="H5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H5</f>
-        <v>37474157.257367119</v>
+        <v>0</v>
       </c>
       <c r="I5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I5</f>
-        <v>36594365.043007948</v>
+        <v>0</v>
       </c>
       <c r="J5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J5</f>
-        <v>37197210.024630971</v>
+        <v>0</v>
       </c>
       <c r="K5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K5</f>
-        <v>36728254.748980798</v>
+        <v>0</v>
       </c>
       <c r="L5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L5</f>
-        <v>38423305.073551409</v>
+        <v>0</v>
       </c>
       <c r="M5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M5</f>
-        <v>40931628.636142634</v>
+        <v>0</v>
       </c>
       <c r="N5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N5</f>
-        <v>41836594.379274704</v>
+        <v>0</v>
       </c>
       <c r="O5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O5</f>
-        <v>42592903.098034792</v>
+        <v>0</v>
       </c>
       <c r="P5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P5</f>
-        <v>41691288.028895609</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q5</f>
-        <v>42297890.212907128</v>
+        <v>0</v>
       </c>
       <c r="R5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R5</f>
-        <v>42215923.452338085</v>
+        <v>0</v>
       </c>
       <c r="S5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S5</f>
-        <v>43040625.701990709</v>
+        <v>0</v>
       </c>
       <c r="T5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T5</f>
-        <v>41832964.589992769</v>
+        <v>0</v>
       </c>
       <c r="U5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U5</f>
-        <v>41605408.164625175</v>
+        <v>0</v>
       </c>
       <c r="V5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V5</f>
-        <v>41562805.55781503</v>
+        <v>0</v>
       </c>
       <c r="W5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W5</f>
-        <v>41537914.157178186</v>
+        <v>0</v>
       </c>
       <c r="X5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X5</f>
-        <v>41585321.26618389</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y5</f>
-        <v>41851539.135312326</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z5</f>
-        <v>41291412.45091676</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA5</f>
-        <v>40760245.87535926</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB5</f>
-        <v>40234851.425840072</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC5</f>
-        <v>39710758.563534513</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD5</f>
-        <v>39357545.193435542</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE5</f>
-        <v>38806082.316189207</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF5</f>
-        <v>38363255.614452176</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG5</f>
-        <v>37983006.99595052</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH5</f>
-        <v>37709249.596445858</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI5</f>
-        <v>37450925.850046836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B6</f>
-        <v>3338232.2447560169</v>
+        <v>0</v>
       </c>
       <c r="C6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C6</f>
-        <v>3545046.4228380565</v>
+        <v>0</v>
       </c>
       <c r="D6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D6</f>
-        <v>3791338.4815435288</v>
+        <v>0</v>
       </c>
       <c r="E6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E6</f>
-        <v>3908653.6860585371</v>
+        <v>0</v>
       </c>
       <c r="F6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F6</f>
-        <v>4104226.5187890772</v>
+        <v>0</v>
       </c>
       <c r="G6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G6</f>
-        <v>4086218.1704277112</v>
+        <v>0</v>
       </c>
       <c r="H6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H6</f>
-        <v>4101010.12881308</v>
+        <v>0</v>
       </c>
       <c r="I6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I6</f>
-        <v>4204107.5400008718</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J6</f>
-        <v>4504236.0102228029</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K6</f>
-        <v>4652464.0368452249</v>
+        <v>0</v>
       </c>
       <c r="L6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L6</f>
-        <v>5066063.1784615489</v>
+        <v>0</v>
       </c>
       <c r="M6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M6</f>
-        <v>5576076.6853566431</v>
+        <v>0</v>
       </c>
       <c r="N6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N6</f>
-        <v>5742063.0633583721</v>
+        <v>0</v>
       </c>
       <c r="O6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O6</f>
-        <v>6211345.866752848</v>
+        <v>0</v>
       </c>
       <c r="P6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P6</f>
-        <v>6108241.0408966746</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q6</f>
-        <v>6293150.7756062327</v>
+        <v>0</v>
       </c>
       <c r="R6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R6</f>
-        <v>6314209.5896260589</v>
+        <v>0</v>
       </c>
       <c r="S6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S6</f>
-        <v>6528363.7033671243</v>
+        <v>0</v>
       </c>
       <c r="T6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T6</f>
-        <v>6407483.1969098058</v>
+        <v>0</v>
       </c>
       <c r="U6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U6</f>
-        <v>6421647.4074295871</v>
+        <v>0</v>
       </c>
       <c r="V6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V6</f>
-        <v>6449833.0314956782</v>
+        <v>0</v>
       </c>
       <c r="W6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W6</f>
-        <v>6553088.3897801731</v>
+        <v>0</v>
       </c>
       <c r="X6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X6</f>
-        <v>6636113.4489896931</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y6</f>
-        <v>6762237.3868471524</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z6</f>
-        <v>6722833.2002120111</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA6</f>
-        <v>6705348.0654855287</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB6</f>
-        <v>6687511.5167112248</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC6</f>
-        <v>6668588.429957456</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD6</f>
-        <v>6677341.7760778535</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE6</f>
-        <v>6651381.4089368554</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF6</f>
-        <v>6642794.5952541018</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG6</f>
-        <v>6644085.0429348508</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH6</f>
-        <v>6663334.836334683</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI6</f>
-        <v>6684854.0373831429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B7</f>
-        <v>418390.42531819048</v>
+        <v>0</v>
       </c>
       <c r="C7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C7</f>
-        <v>428857.46263679728</v>
+        <v>0</v>
       </c>
       <c r="D7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D7</f>
-        <v>477947.87927953427</v>
+        <v>0</v>
       </c>
       <c r="E7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E7</f>
-        <v>485295.46849415253</v>
+        <v>0</v>
       </c>
       <c r="F7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F7</f>
-        <v>495677.54113778198</v>
+        <v>0</v>
       </c>
       <c r="G7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G7</f>
-        <v>486839.89788372436</v>
+        <v>0</v>
       </c>
       <c r="H7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H7</f>
-        <v>483897.74586517987</v>
+        <v>0</v>
       </c>
       <c r="I7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I7</f>
-        <v>487916.13995244307</v>
+        <v>0</v>
       </c>
       <c r="J7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J7</f>
-        <v>536831.915455207</v>
+        <v>0</v>
       </c>
       <c r="K7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K7</f>
-        <v>542547.43116306851</v>
+        <v>0</v>
       </c>
       <c r="L7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L7</f>
-        <v>579334.26350644173</v>
+        <v>0</v>
       </c>
       <c r="M7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M7</f>
-        <v>626308.93667343317</v>
+        <v>0</v>
       </c>
       <c r="N7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N7</f>
-        <v>645280.84658533277</v>
+        <v>0</v>
       </c>
       <c r="O7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O7</f>
-        <v>676247.38418459415</v>
+        <v>0</v>
       </c>
       <c r="P7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P7</f>
-        <v>670868.11029897316</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q7</f>
-        <v>705108.19982141035</v>
+        <v>0</v>
       </c>
       <c r="R7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R7</f>
-        <v>717157.29511405737</v>
+        <v>0</v>
       </c>
       <c r="S7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S7</f>
-        <v>751663.70816825563</v>
+        <v>0</v>
       </c>
       <c r="T7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T7</f>
-        <v>754161.14151159406</v>
+        <v>0</v>
       </c>
       <c r="U7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U7</f>
-        <v>775632.59657866764</v>
+        <v>0</v>
       </c>
       <c r="V7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V7</f>
-        <v>790249.15017843375</v>
+        <v>0</v>
       </c>
       <c r="W7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W7</f>
-        <v>797753.86208650365</v>
+        <v>0</v>
       </c>
       <c r="X7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X7</f>
-        <v>805808.11037112831</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y7</f>
-        <v>835891.14659839962</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z7</f>
-        <v>841279.95813550835</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA7</f>
-        <v>846688.83481586073</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB7</f>
-        <v>851911.56742343516</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC7</f>
-        <v>856855.36528023379</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD7</f>
-        <v>865246.54170250113</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE7</f>
-        <v>869025.52093185007</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF7</f>
-        <v>874944.01668393461</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG7</f>
-        <v>882064.24913545721</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH7</f>
-        <v>891500.25446790224</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI7</f>
-        <v>901193.44711413619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B8</f>
         <v>0</v>
       </c>
       <c r="C8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C8</f>
         <v>0</v>
       </c>
       <c r="D8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D8</f>
         <v>0</v>
       </c>
       <c r="E8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E8</f>
         <v>0</v>
       </c>
       <c r="F8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F8</f>
         <v>0</v>
       </c>
       <c r="G8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G8</f>
         <v>0</v>
       </c>
       <c r="H8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H8</f>
         <v>0</v>
       </c>
       <c r="I8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I8</f>
         <v>0</v>
       </c>
       <c r="J8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J8</f>
         <v>0</v>
       </c>
       <c r="K8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K8</f>
         <v>0</v>
       </c>
       <c r="L8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L8</f>
         <v>0</v>
       </c>
       <c r="M8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M8</f>
         <v>0</v>
       </c>
       <c r="N8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N8</f>
         <v>0</v>
       </c>
       <c r="O8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O8</f>
         <v>0</v>
       </c>
       <c r="P8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q8</f>
         <v>0</v>
       </c>
       <c r="R8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R8</f>
         <v>0</v>
       </c>
       <c r="S8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S8</f>
         <v>0</v>
       </c>
       <c r="T8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T8</f>
         <v>0</v>
       </c>
       <c r="U8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U8</f>
         <v>0</v>
       </c>
       <c r="V8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V8</f>
         <v>0</v>
       </c>
       <c r="W8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W8</f>
         <v>0</v>
       </c>
       <c r="X8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X8</f>
         <v>0</v>
       </c>
       <c r="Y8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y8</f>
         <v>0</v>
       </c>
       <c r="Z8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z8</f>
         <v>0</v>
       </c>
       <c r="AA8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA8</f>
         <v>0</v>
       </c>
       <c r="AB8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB8</f>
         <v>0</v>
       </c>
       <c r="AC8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC8</f>
         <v>0</v>
       </c>
       <c r="AD8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD8</f>
         <v>0</v>
       </c>
       <c r="AE8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE8</f>
         <v>0</v>
       </c>
       <c r="AF8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF8</f>
         <v>0</v>
       </c>
       <c r="AG8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG8</f>
         <v>0</v>
       </c>
       <c r="AH8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH8</f>
         <v>0</v>
       </c>
       <c r="AI8" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B9</f>
-        <v>922988.57036734931</v>
+        <v>0</v>
       </c>
       <c r="C9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C9</f>
-        <v>915550.43887242302</v>
+        <v>0</v>
       </c>
       <c r="D9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D9</f>
-        <v>975465.8556811352</v>
+        <v>0</v>
       </c>
       <c r="E9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E9</f>
-        <v>944080.09190937423</v>
+        <v>0</v>
       </c>
       <c r="F9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F9</f>
-        <v>985763.69395265973</v>
+        <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G9</f>
-        <v>955528.9875705645</v>
+        <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H9</f>
-        <v>998138.24632272904</v>
+        <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I9</f>
-        <v>976371.75148404727</v>
+        <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J9</f>
-        <v>999974.59145477857</v>
+        <v>0</v>
       </c>
       <c r="K9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K9</f>
-        <v>998508.09900985367</v>
+        <v>0</v>
       </c>
       <c r="L9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L9</f>
-        <v>1055743.5073048649</v>
+        <v>0</v>
       </c>
       <c r="M9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M9</f>
-        <v>1165531.2666529943</v>
+        <v>0</v>
       </c>
       <c r="N9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N9</f>
-        <v>1178838.3314864235</v>
+        <v>0</v>
       </c>
       <c r="O9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O9</f>
-        <v>1200680.2842510389</v>
+        <v>0</v>
       </c>
       <c r="P9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P9</f>
-        <v>1165522.2644640193</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q9</f>
-        <v>1181544.4118115818</v>
+        <v>0</v>
       </c>
       <c r="R9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R9</f>
-        <v>1219759.3751079855</v>
+        <v>0</v>
       </c>
       <c r="S9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S9</f>
-        <v>1247195.9066141751</v>
+        <v>0</v>
       </c>
       <c r="T9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T9</f>
-        <v>1198129.9946144721</v>
+        <v>0</v>
       </c>
       <c r="U9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U9</f>
-        <v>1167972.6369222365</v>
+        <v>0</v>
       </c>
       <c r="V9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V9</f>
-        <v>1180196.6755686593</v>
+        <v>0</v>
       </c>
       <c r="W9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W9</f>
-        <v>1178331.3233945933</v>
+        <v>0</v>
       </c>
       <c r="X9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X9</f>
-        <v>1196006.0935352065</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y9</f>
-        <v>1203287.4540604183</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z9</f>
-        <v>1178576.0189494768</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA9</f>
-        <v>1163167.6116912814</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB9</f>
-        <v>1147928.5870498531</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC9</f>
-        <v>1132731.3689681082</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD9</f>
-        <v>1122412.0650922982</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE9</f>
-        <v>1106442.8819811465</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF9</f>
-        <v>1093575.6144062181</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG9</f>
-        <v>1082495.6221455007</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH9</f>
-        <v>1074452.969729034</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI9</f>
-        <v>1066851.7110259375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B10</f>
         <v>0</v>
       </c>
       <c r="C10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C10</f>
         <v>0</v>
       </c>
       <c r="D10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D10</f>
         <v>0</v>
       </c>
       <c r="E10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E10</f>
         <v>0</v>
       </c>
       <c r="F10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F10</f>
         <v>0</v>
       </c>
       <c r="G10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G10</f>
         <v>0</v>
       </c>
       <c r="H10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H10</f>
         <v>0</v>
       </c>
       <c r="I10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I10</f>
         <v>0</v>
       </c>
       <c r="J10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J10</f>
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L10</f>
         <v>0</v>
       </c>
       <c r="M10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M10</f>
         <v>0</v>
       </c>
       <c r="N10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N10</f>
         <v>0</v>
       </c>
       <c r="O10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P10</f>
         <v>0</v>
       </c>
       <c r="Q10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q10</f>
         <v>0</v>
       </c>
       <c r="R10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R10</f>
         <v>0</v>
       </c>
       <c r="S10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T10</f>
         <v>0</v>
       </c>
       <c r="U10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U10</f>
         <v>0</v>
       </c>
       <c r="V10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V10</f>
         <v>0</v>
       </c>
       <c r="W10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W10</f>
         <v>0</v>
       </c>
       <c r="X10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X10</f>
         <v>0</v>
       </c>
       <c r="Y10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y10</f>
         <v>0</v>
       </c>
       <c r="Z10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z10</f>
         <v>0</v>
       </c>
       <c r="AA10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB10</f>
         <v>0</v>
       </c>
       <c r="AC10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC10</f>
         <v>0</v>
       </c>
       <c r="AD10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD10</f>
         <v>0</v>
       </c>
       <c r="AE10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE10</f>
         <v>0</v>
       </c>
       <c r="AF10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF10</f>
         <v>0</v>
       </c>
       <c r="AG10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG10</f>
         <v>0</v>
       </c>
       <c r="AH10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH10</f>
         <v>0</v>
       </c>
       <c r="AI10" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B11</f>
-        <v>274601.53136384458</v>
+        <v>0</v>
       </c>
       <c r="C11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C11</f>
-        <v>258301.3945960812</v>
+        <v>0</v>
       </c>
       <c r="D11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D11</f>
-        <v>262290.53205643268</v>
+        <v>0</v>
       </c>
       <c r="E11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E11</f>
-        <v>145935.16326003801</v>
+        <v>0</v>
       </c>
       <c r="F11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F11</f>
-        <v>147426.7128879519</v>
+        <v>0</v>
       </c>
       <c r="G11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G11</f>
-        <v>148273.34635673533</v>
+        <v>0</v>
       </c>
       <c r="H11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H11</f>
-        <v>143439.2469819207</v>
+        <v>0</v>
       </c>
       <c r="I11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I11</f>
-        <v>112820.446241895</v>
+        <v>0</v>
       </c>
       <c r="J11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J11</f>
-        <v>124257.1813168634</v>
+        <v>0</v>
       </c>
       <c r="K11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K11</f>
-        <v>125166.47854300888</v>
+        <v>0</v>
       </c>
       <c r="L11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L11</f>
-        <v>129594.35264038887</v>
+        <v>0</v>
       </c>
       <c r="M11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M11</f>
-        <v>116424.63675619235</v>
+        <v>0</v>
       </c>
       <c r="N11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N11</f>
-        <v>115259.62344256532</v>
+        <v>0</v>
       </c>
       <c r="O11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O11</f>
-        <v>115000.75298120971</v>
+        <v>0</v>
       </c>
       <c r="P11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P11</f>
-        <v>113826.86274612411</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q11</f>
-        <v>125721.19892173778</v>
+        <v>0</v>
       </c>
       <c r="R11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R11</f>
-        <v>115699.54362557316</v>
+        <v>0</v>
       </c>
       <c r="S11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S11</f>
-        <v>118925.11805523261</v>
+        <v>0</v>
       </c>
       <c r="T11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T11</f>
-        <v>113221.27853021384</v>
+        <v>0</v>
       </c>
       <c r="U11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U11</f>
-        <v>115222.34220619674</v>
+        <v>0</v>
       </c>
       <c r="V11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V11</f>
-        <v>116428.4493259966</v>
+        <v>0</v>
       </c>
       <c r="W11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W11</f>
-        <v>116432.29799172295</v>
+        <v>0</v>
       </c>
       <c r="X11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X11</f>
-        <v>116313.60908728649</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y11</f>
-        <v>117252.064939524</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z11</f>
-        <v>116654.74223301445</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA11</f>
-        <v>115651.101877366</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB11</f>
-        <v>114654.46803437387</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC11</f>
-        <v>113652.15846067802</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD11</f>
-        <v>113131.56450224132</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE11</f>
-        <v>112033.33872866908</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF11</f>
-        <v>111239.76568521454</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG11</f>
-        <v>110620.74291553255</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH11</f>
-        <v>110307.04810538993</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI11</f>
-        <v>110035.20247065951</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B12</f>
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C12</f>
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D12</f>
         <v>0</v>
       </c>
       <c r="E12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E12</f>
         <v>0</v>
       </c>
       <c r="F12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F12</f>
         <v>0</v>
       </c>
       <c r="G12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G12</f>
         <v>0</v>
       </c>
       <c r="H12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H12</f>
         <v>0</v>
       </c>
       <c r="I12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I12</f>
         <v>0</v>
       </c>
       <c r="J12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J12</f>
         <v>0</v>
       </c>
       <c r="K12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K12</f>
         <v>0</v>
       </c>
       <c r="L12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L12</f>
         <v>0</v>
       </c>
       <c r="M12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M12</f>
         <v>0</v>
       </c>
       <c r="N12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N12</f>
         <v>0</v>
       </c>
       <c r="O12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O12</f>
         <v>0</v>
       </c>
       <c r="P12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P12</f>
         <v>0</v>
       </c>
       <c r="Q12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q12</f>
         <v>0</v>
       </c>
       <c r="R12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R12</f>
         <v>0</v>
       </c>
       <c r="S12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S12</f>
         <v>0</v>
       </c>
       <c r="T12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T12</f>
         <v>0</v>
       </c>
       <c r="U12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U12</f>
         <v>0</v>
       </c>
       <c r="V12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V12</f>
         <v>0</v>
       </c>
       <c r="W12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W12</f>
         <v>0</v>
       </c>
       <c r="X12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X12</f>
         <v>0</v>
       </c>
       <c r="Y12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y12</f>
         <v>0</v>
       </c>
       <c r="Z12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z12</f>
         <v>0</v>
       </c>
       <c r="AA12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA12</f>
         <v>0</v>
       </c>
       <c r="AB12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB12</f>
         <v>0</v>
       </c>
       <c r="AC12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC12</f>
         <v>0</v>
       </c>
       <c r="AD12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD12</f>
         <v>0</v>
       </c>
       <c r="AE12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE12</f>
         <v>0</v>
       </c>
       <c r="AF12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF12</f>
         <v>0</v>
       </c>
       <c r="AG12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG12</f>
         <v>0</v>
       </c>
       <c r="AH12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH12</f>
         <v>0</v>
       </c>
       <c r="AI12" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B13</f>
         <v>0</v>
       </c>
       <c r="C13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C13</f>
         <v>0</v>
       </c>
       <c r="D13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D13</f>
         <v>0</v>
       </c>
       <c r="E13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E13</f>
         <v>0</v>
       </c>
       <c r="F13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F13</f>
         <v>0</v>
       </c>
       <c r="G13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G13</f>
         <v>0</v>
       </c>
       <c r="H13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H13</f>
         <v>0</v>
       </c>
       <c r="I13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I13</f>
         <v>0</v>
       </c>
       <c r="J13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J13</f>
         <v>0</v>
       </c>
       <c r="K13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K13</f>
         <v>0</v>
       </c>
       <c r="L13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L13</f>
         <v>0</v>
       </c>
       <c r="M13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M13</f>
         <v>0</v>
       </c>
       <c r="N13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N13</f>
         <v>0</v>
       </c>
       <c r="O13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O13</f>
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P13</f>
         <v>0</v>
       </c>
       <c r="Q13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q13</f>
         <v>0</v>
       </c>
       <c r="R13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R13</f>
         <v>0</v>
       </c>
       <c r="S13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S13</f>
         <v>0</v>
       </c>
       <c r="T13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T13</f>
         <v>0</v>
       </c>
       <c r="U13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U13</f>
         <v>0</v>
       </c>
       <c r="V13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V13</f>
         <v>0</v>
       </c>
       <c r="W13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W13</f>
         <v>0</v>
       </c>
       <c r="X13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X13</f>
         <v>0</v>
       </c>
       <c r="Y13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y13</f>
         <v>0</v>
       </c>
       <c r="Z13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z13</f>
         <v>0</v>
       </c>
       <c r="AA13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA13</f>
         <v>0</v>
       </c>
       <c r="AB13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB13</f>
         <v>0</v>
       </c>
       <c r="AC13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC13</f>
         <v>0</v>
       </c>
       <c r="AD13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD13</f>
         <v>0</v>
       </c>
       <c r="AE13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE13</f>
         <v>0</v>
       </c>
       <c r="AF13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF13</f>
         <v>0</v>
       </c>
       <c r="AG13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG13</f>
         <v>0</v>
       </c>
       <c r="AH13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH13</f>
         <v>0</v>
       </c>
       <c r="AI13" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B14</f>
         <v>0</v>
       </c>
       <c r="C14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C14</f>
         <v>0</v>
       </c>
       <c r="D14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D14</f>
         <v>0</v>
       </c>
       <c r="E14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E14</f>
         <v>0</v>
       </c>
       <c r="F14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F14</f>
         <v>0</v>
       </c>
       <c r="G14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G14</f>
         <v>0</v>
       </c>
       <c r="H14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H14</f>
         <v>0</v>
       </c>
       <c r="I14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I14</f>
         <v>0</v>
       </c>
       <c r="J14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J14</f>
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K14</f>
         <v>0</v>
       </c>
       <c r="L14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L14</f>
         <v>0</v>
       </c>
       <c r="M14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M14</f>
         <v>0</v>
       </c>
       <c r="N14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N14</f>
         <v>0</v>
       </c>
       <c r="O14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O14</f>
         <v>0</v>
       </c>
       <c r="P14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P14</f>
         <v>0</v>
       </c>
       <c r="Q14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q14</f>
         <v>0</v>
       </c>
       <c r="R14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R14</f>
         <v>0</v>
       </c>
       <c r="S14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S14</f>
         <v>0</v>
       </c>
       <c r="T14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T14</f>
         <v>0</v>
       </c>
       <c r="U14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U14</f>
         <v>0</v>
       </c>
       <c r="V14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V14</f>
         <v>0</v>
       </c>
       <c r="W14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W14</f>
         <v>0</v>
       </c>
       <c r="X14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X14</f>
         <v>0</v>
       </c>
       <c r="Y14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y14</f>
         <v>0</v>
       </c>
       <c r="Z14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z14</f>
         <v>0</v>
       </c>
       <c r="AA14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA14</f>
         <v>0</v>
       </c>
       <c r="AB14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB14</f>
         <v>0</v>
       </c>
       <c r="AC14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC14</f>
         <v>0</v>
       </c>
       <c r="AD14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD14</f>
         <v>0</v>
       </c>
       <c r="AE14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE14</f>
         <v>0</v>
       </c>
       <c r="AF14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF14</f>
         <v>0</v>
       </c>
       <c r="AG14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG14</f>
         <v>0</v>
       </c>
       <c r="AH14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH14</f>
         <v>0</v>
       </c>
       <c r="AI14" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B15</f>
         <v>0</v>
       </c>
       <c r="C15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C15</f>
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D15</f>
         <v>0</v>
       </c>
       <c r="E15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E15</f>
         <v>0</v>
       </c>
       <c r="F15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F15</f>
         <v>0</v>
       </c>
       <c r="G15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G15</f>
         <v>0</v>
       </c>
       <c r="H15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H15</f>
         <v>0</v>
       </c>
       <c r="I15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I15</f>
         <v>0</v>
       </c>
       <c r="J15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J15</f>
         <v>0</v>
       </c>
       <c r="K15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K15</f>
         <v>0</v>
       </c>
       <c r="L15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L15</f>
         <v>0</v>
       </c>
       <c r="M15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M15</f>
         <v>0</v>
       </c>
       <c r="N15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N15</f>
         <v>0</v>
       </c>
       <c r="O15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O15</f>
         <v>0</v>
       </c>
       <c r="P15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P15</f>
         <v>0</v>
       </c>
       <c r="Q15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q15</f>
         <v>0</v>
       </c>
       <c r="R15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R15</f>
         <v>0</v>
       </c>
       <c r="S15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S15</f>
         <v>0</v>
       </c>
       <c r="T15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T15</f>
         <v>0</v>
       </c>
       <c r="U15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U15</f>
         <v>0</v>
       </c>
       <c r="V15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V15</f>
         <v>0</v>
       </c>
       <c r="W15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W15</f>
         <v>0</v>
       </c>
       <c r="X15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X15</f>
         <v>0</v>
       </c>
       <c r="Y15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y15</f>
         <v>0</v>
       </c>
       <c r="Z15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z15</f>
         <v>0</v>
       </c>
       <c r="AA15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA15</f>
         <v>0</v>
       </c>
       <c r="AB15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB15</f>
         <v>0</v>
       </c>
       <c r="AC15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC15</f>
         <v>0</v>
       </c>
       <c r="AD15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD15</f>
         <v>0</v>
       </c>
       <c r="AE15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE15</f>
         <v>0</v>
       </c>
       <c r="AF15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF15</f>
         <v>0</v>
       </c>
       <c r="AG15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG15</f>
         <v>0</v>
       </c>
       <c r="AH15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH15</f>
         <v>0</v>
       </c>
       <c r="AI15" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B16</f>
         <v>0</v>
       </c>
       <c r="C16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C16</f>
         <v>0</v>
       </c>
       <c r="D16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D16</f>
         <v>0</v>
       </c>
       <c r="E16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E16</f>
         <v>0</v>
       </c>
       <c r="F16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F16</f>
         <v>0</v>
       </c>
       <c r="G16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G16</f>
         <v>0</v>
       </c>
       <c r="H16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H16</f>
         <v>0</v>
       </c>
       <c r="I16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I16</f>
         <v>0</v>
       </c>
       <c r="J16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J16</f>
         <v>0</v>
       </c>
       <c r="K16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K16</f>
         <v>0</v>
       </c>
       <c r="L16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L16</f>
         <v>0</v>
       </c>
       <c r="M16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M16</f>
         <v>0</v>
       </c>
       <c r="N16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N16</f>
         <v>0</v>
       </c>
       <c r="O16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O16</f>
         <v>0</v>
       </c>
       <c r="P16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P16</f>
         <v>0</v>
       </c>
       <c r="Q16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q16</f>
         <v>0</v>
       </c>
       <c r="R16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R16</f>
         <v>0</v>
       </c>
       <c r="S16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S16</f>
         <v>0</v>
       </c>
       <c r="T16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T16</f>
         <v>0</v>
       </c>
       <c r="U16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U16</f>
         <v>0</v>
       </c>
       <c r="V16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V16</f>
         <v>0</v>
       </c>
       <c r="W16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W16</f>
         <v>0</v>
       </c>
       <c r="X16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X16</f>
         <v>0</v>
       </c>
       <c r="Y16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y16</f>
         <v>0</v>
       </c>
       <c r="Z16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z16</f>
         <v>0</v>
       </c>
       <c r="AA16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA16</f>
         <v>0</v>
       </c>
       <c r="AB16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB16</f>
         <v>0</v>
       </c>
       <c r="AC16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC16</f>
         <v>0</v>
       </c>
       <c r="AD16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD16</f>
         <v>0</v>
       </c>
       <c r="AE16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE16</f>
         <v>0</v>
       </c>
       <c r="AF16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF16</f>
         <v>0</v>
       </c>
       <c r="AG16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG16</f>
         <v>0</v>
       </c>
       <c r="AH16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH16</f>
         <v>0</v>
       </c>
       <c r="AI16" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!B17</f>
         <v>0</v>
       </c>
       <c r="C17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!C17</f>
         <v>0</v>
       </c>
       <c r="D17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!D17</f>
         <v>0</v>
       </c>
       <c r="E17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!E17</f>
         <v>0</v>
       </c>
       <c r="F17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!F17</f>
         <v>0</v>
       </c>
       <c r="G17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!G17</f>
         <v>0</v>
       </c>
       <c r="H17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!H17</f>
         <v>0</v>
       </c>
       <c r="I17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!I17</f>
         <v>0</v>
       </c>
       <c r="J17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!J17</f>
         <v>0</v>
       </c>
       <c r="K17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!K17</f>
         <v>0</v>
       </c>
       <c r="L17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!L17</f>
         <v>0</v>
       </c>
       <c r="M17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!M17</f>
         <v>0</v>
       </c>
       <c r="N17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!N17</f>
         <v>0</v>
       </c>
       <c r="O17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!O17</f>
         <v>0</v>
       </c>
       <c r="P17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!P17</f>
         <v>0</v>
       </c>
       <c r="Q17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Q17</f>
         <v>0</v>
       </c>
       <c r="R17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!R17</f>
         <v>0</v>
       </c>
       <c r="S17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!S17</f>
         <v>0</v>
       </c>
       <c r="T17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!T17</f>
         <v>0</v>
       </c>
       <c r="U17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!U17</f>
         <v>0</v>
       </c>
       <c r="V17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!V17</f>
         <v>0</v>
       </c>
       <c r="W17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!W17</f>
         <v>0</v>
       </c>
       <c r="X17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!X17</f>
         <v>0</v>
       </c>
       <c r="Y17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Y17</f>
         <v>0</v>
       </c>
       <c r="Z17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!Z17</f>
         <v>0</v>
       </c>
       <c r="AA17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AA17</f>
         <v>0</v>
       </c>
       <c r="AB17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AB17</f>
         <v>0</v>
       </c>
       <c r="AC17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AC17</f>
         <v>0</v>
       </c>
       <c r="AD17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AD17</f>
         <v>0</v>
       </c>
       <c r="AE17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AE17</f>
         <v>0</v>
       </c>
       <c r="AF17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AF17</f>
         <v>0</v>
       </c>
       <c r="AG17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AG17</f>
         <v>0</v>
       </c>
       <c r="AH17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AH17</f>
         <v>0</v>
       </c>
       <c r="AI17" s="15">
-        <f>INDEX('AEO Table 10'!$C$31:$AJ$31,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6*'Canada Elec Mix'!AI17</f>
         <v>0</v>
       </c>
     </row>
@@ -22872,22 +22491,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
         <v>158</v>
       </c>
       <c r="B1">
@@ -22993,145 +22614,111 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!B$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9370803</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!C$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>10219186</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!D$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9419186</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!E$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!F$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!G$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!H$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!I$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9069186</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!J$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!K$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!L$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!M$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!N$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!O$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!P$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!Q$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!R$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!S$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!T$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!U$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!V$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!W$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!X$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!Y$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!Z$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!AA$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!AB$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!AC$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!AD$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!AE$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!AF$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!AG$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!AH$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <f>INDEX('AEO Table 10'!$C$36:$AJ$36,MATCH('EIaE-BIE'!AI$1,'AEO Table 10'!$C$13:$AJ$13,0))*10^6</f>
-        <v>9119186</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
